--- a/Documents/Journals/Paragoso.xlsx
+++ b/Documents/Journals/Paragoso.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Print" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name:</t>
   </si>
@@ -33,9 +33,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Network/UI Designer &amp; Software Tester/ Technical Writer</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -325,17 +343,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:H7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" name="No." dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" name="No." dataDxfId="7">
       <calculatedColumnFormula>IFERROR(B6+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Date" dataDxfId="5"/>
-    <tableColumn id="7" name="Time Start" dataDxfId="4"/>
-    <tableColumn id="3" name="Time End" dataDxfId="3"/>
-    <tableColumn id="4" name="Module" dataDxfId="2"/>
-    <tableColumn id="5" name="Task" dataDxfId="1"/>
-    <tableColumn id="6" name="Remarks" dataDxfId="0"/>
+    <tableColumn id="2" name="Date Start" dataDxfId="6"/>
+    <tableColumn id="8" name="Date End" dataDxfId="0"/>
+    <tableColumn id="7" name="Time Start" dataDxfId="5"/>
+    <tableColumn id="3" name="Time End" dataDxfId="4"/>
+    <tableColumn id="4" name="Module" dataDxfId="3"/>
+    <tableColumn id="5" name="Task" dataDxfId="2"/>
+    <tableColumn id="6" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,83 +647,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f>IFERROR(B6+1,1)</f>
         <v>1</v>
@@ -713,10 +735,11 @@
         <v>43786</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
